--- a/segmentation/SegmentationPractice.xlsx
+++ b/segmentation/SegmentationPractice.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drakeasberry/Desktop/Segmentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drakeasberry/github/Dissertation_Experiments/segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9654AA93-C8DB-2B48-8B56-0BCC56C902E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F69B9E-CBEE-E94E-AD65-FEE39E155FE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13180" xr2:uid="{DD305808-25BE-584A-BDC5-41B2D7B3A827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>stimuliPractice0</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>pocilga</t>
+  </si>
+  <si>
+    <t>List_Num</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Carrier_item</t>
+  </si>
+  <si>
+    <t>Filler_item_1</t>
+  </si>
+  <si>
+    <t>Filler_item_2</t>
+  </si>
+  <si>
+    <t>Filler_item_3</t>
+  </si>
+  <si>
+    <t>Filler_item_4</t>
+  </si>
+  <si>
+    <t>Filler_item_5</t>
+  </si>
+  <si>
+    <t>Filler_item_6</t>
+  </si>
+  <si>
+    <t>Filler_item_7</t>
+  </si>
+  <si>
+    <t>Filler_item_8</t>
+  </si>
+  <si>
+    <t>Filler_item_9</t>
+  </si>
+  <si>
+    <t>Filler_item_10</t>
+  </si>
+  <si>
+    <t>Filler_item_11</t>
   </si>
 </sst>
 </file>
@@ -475,123 +517,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCEACBC-4CE0-D74E-8631-05195BCFD8FA}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="A4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
